--- a/加解密算法/加密算法总结.xlsx
+++ b/加解密算法/加密算法总结.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weirongchi/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weirongchi/Desktop/我的Git资料/加解密算法/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3100" yWindow="460" windowWidth="25600" windowHeight="14820" tabRatio="500"/>
+    <workbookView xWindow="940" yWindow="460" windowWidth="25600" windowHeight="14820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>加密算法总结</t>
     <rPh sb="0" eb="1">
@@ -62,19 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>时间戳/动态密码</t>
-    <rPh sb="0" eb="1">
-      <t>shi'j'c</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>dong'tai</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>mi'm</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>算法</t>
     <rPh sb="0" eb="1">
       <t>sua'f</t>
@@ -121,16 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自定义算法</t>
-    <rPh sb="0" eb="1">
-      <t>zi'ding'y</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>suan'f</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>优点</t>
     <rPh sb="0" eb="1">
       <t>you'd</t>
@@ -186,94 +163,6 @@
     <rPh sb="18" eb="19">
       <t>deng</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单纯的md5加密可通过撞库的方式来进行暴力破解，安全性不高，最好通过加盐的方式来提高安全性</t>
-    <rPh sb="0" eb="1">
-      <t>dan'c</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>d</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>jia'm</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ke</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>tong'g</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>d</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>fang's</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>lai</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>jin'x</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>bao'l</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>li</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>po'j</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>an'q</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>xing</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>bu'gao</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>zui'h</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>tong'g</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>jia'yan</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>de</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>fang's</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>lai</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>ti'gao</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>an'q</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>xing</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.方便存储:MD5加密出来都是32位的字符串,能够给定固定大小的空间存储,传输,验证
-2.文件加密:MD5运用在文件加密上很有优势,应为只需要32为字符串就能对一个巨大的文件进行验证完整性
-3.不 可 逆:MD5加密出来只会截取末尾32位,具有良好的安全性,如果是对于参数加密很难伪造MD5
-4.加密损耗低:MD5加密对于性能的消耗微乎其微(我获得的结果是:0.001毫秒)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.信息量在原有基础上增加33%;
-2.编码和解码需要计算量，耗费CPU.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -289,102 +178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>密钥较短，可通过暴力进行破解</t>
-    <rPh sb="0" eb="1">
-      <t>mi'yao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jiao'duan</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ke</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>tong'g</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>bao'li</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>jin'x</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>po'j</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>替代DES的，密钥长度更长，选择更多，也更灵活(128、192、256位)，安全性更高</t>
-    <rPh sb="0" eb="1">
-      <t>ti'dai</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>de</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>mi'yao</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>chang'd</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>geng</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>chang</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>xuan'z</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>geng'duo</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ye</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>geng</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ling'h</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>an'q</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>xing</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>geng'gao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密钥较短(64位，56位进行运算，8位校验)，加密处理简单，加解密速度快，处理数据后可复原。</t>
-    <rPh sb="7" eb="8">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>jin'x</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>yun's</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>jiao'yan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大数据或关键数据加密</t>
   </si>
   <si>
@@ -468,7 +261,101 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>加解密需要不同的密钥,公钥加密，私钥解密</t>
+    <t>单纯的md5加密可通过撞库的方式来进行暴力破解，安全性不高，最好通过加盐的方式来提高安全性，或者配合其他的加密方式</t>
+    <rPh sb="0" eb="1">
+      <t>dan'c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jia'm</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>tong'g</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>d</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>fang's</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>lai</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>jin'x</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>bao'l</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>li</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>po'j</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>an'q</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>bu'gao</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>zui'h</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>tong'g</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>jia'yan</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>de</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>fang's</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>lai</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ti'gao</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>an'q</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>huo'z</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>pei'he</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>qi'ta</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>d</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>jia'm</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>fang's</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加解密需要不同的密钥,公钥和私钥都可进行相互的加解密</t>
     <rPh sb="0" eb="1">
       <t>jia'jie'm</t>
     </rPh>
@@ -488,13 +375,199 @@
       <t>gong'yao</t>
     </rPh>
     <rPh sb="13" eb="14">
+      <t>he</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>si'ren</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>dou</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>jin'x</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>xiang'hu</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>d</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>jia'jie'mi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>替代DES的，密钥长度更长，选择更多，也更灵活(128、192、256位)，安全性更高，速度也更快</t>
+    <rPh sb="0" eb="1">
+      <t>ti'dai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>mi'yao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>chang'd</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>geng</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>chang</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>xuan'z</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>geng'duo</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ye</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>geng</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ling'h</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>an'q</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>geng'gao</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>su'd</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ye</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>geng'kuai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密钥较短，可通过穷举搜索法(撞库)进行暴力破解</t>
+    <rPh sb="0" eb="1">
+      <t>mi'yao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jiao'duan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tong'g</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qiong'ju</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>sou's</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>fa</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zhuang'ku</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>jin'x</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>bao'li</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>po'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.方便存储:MD5加密出来都是32位的字符串,能够给定固定大小的空间存储,传输,验证
+2.文件加密:MD5运用在文件加密上很有优势,因为只需要32为字符串就能对一个巨大的文件进行验证完整性
+3.不可逆:MD5加密出来只会截取末尾32位,具有良好的安全性,如果是对于参数加密很难伪造MD5
+4.加密损耗低:MD5加密对于性能的消耗微乎其微</t>
+    <rPh sb="67" eb="68">
+      <t>yin'we</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.信息量在原有基础上增加33%，即有33%的加密内容是冗余的。
+2.编码和解码需要时间会耗费CPU。</t>
+    <rPh sb="17" eb="18">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>you</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>de</t>
+    </rPh>
+    <rPh sb="23" eb="24">
       <t>jia'm</t>
     </rPh>
-    <rPh sb="16" eb="17">
-      <t>si'ren</t>
+    <rPh sb="25" eb="26">
+      <t>nei'r</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>rong'yu</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>d</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>shi'j</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>hui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密钥较短(64位=56个运算位+8个校验位)，加密处理简单，加解密速度快，处理后的数据可复原。</t>
+    <rPh sb="7" eb="8">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yun's</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ge</t>
     </rPh>
     <rPh sb="18" eb="19">
-      <t>jie'm</t>
+      <t>jiao'yan</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>we</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>d</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -557,12 +630,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -574,6 +644,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -854,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="94" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -865,138 +941,132 @@
     <col min="4" max="4" width="19.6640625" customWidth="1"/>
     <col min="5" max="5" width="20.83203125" customWidth="1"/>
     <col min="6" max="6" width="44" customWidth="1"/>
-    <col min="7" max="7" width="33.5" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+    <row r="2" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:8" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="3" t="s">
+    <row r="5" spans="1:8" s="4" customFormat="1" ht="215" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="B5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" ht="149" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="B6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="5"/>
     </row>
-    <row r="5" spans="1:8" s="5" customFormat="1" ht="251" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+    <row r="7" spans="1:8" s="4" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" s="5" customFormat="1" ht="149" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" s="5" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A1:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
